--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Areg</t>
+  </si>
+  <si>
+    <t>Erbb3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Areg</t>
-  </si>
-  <si>
-    <t>Erbb3</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08518099999999999</v>
+        <v>0.014328</v>
       </c>
       <c r="H2">
-        <v>0.255543</v>
+        <v>0.042984</v>
       </c>
       <c r="I2">
-        <v>0.07343347916980969</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.07343347916980969</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2167736666666666</v>
+        <v>0.09551033333333332</v>
       </c>
       <c r="N2">
-        <v>0.6503209999999999</v>
+        <v>0.286531</v>
       </c>
       <c r="O2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="P2">
-        <v>0.06003183809373915</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="Q2">
-        <v>0.01846499770033333</v>
+        <v>0.001368472056</v>
       </c>
       <c r="R2">
-        <v>0.166184979303</v>
+        <v>0.012316248504</v>
       </c>
       <c r="S2">
-        <v>0.004408346732181981</v>
+        <v>0.0198020999427218</v>
       </c>
       <c r="T2">
-        <v>0.004408346732181981</v>
+        <v>0.0198020999427218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08518099999999999</v>
+        <v>0.014328</v>
       </c>
       <c r="H3">
-        <v>0.255543</v>
+        <v>0.042984</v>
       </c>
       <c r="I3">
-        <v>0.07343347916980969</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.07343347916980969</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.038293</v>
       </c>
       <c r="O3">
-        <v>0.09584595495126667</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="P3">
-        <v>0.09584595495126669</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="Q3">
-        <v>0.02948094534433333</v>
+        <v>0.004958887368</v>
       </c>
       <c r="R3">
-        <v>0.2653285080989999</v>
+        <v>0.044629986312</v>
       </c>
       <c r="S3">
-        <v>0.007038301936424359</v>
+        <v>0.07175622098770619</v>
       </c>
       <c r="T3">
-        <v>0.00703830193642436</v>
+        <v>0.07175622098770619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08518099999999999</v>
+        <v>0.014328</v>
       </c>
       <c r="H4">
-        <v>0.255543</v>
+        <v>0.042984</v>
       </c>
       <c r="I4">
-        <v>0.07343347916980969</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.07343347916980969</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.048106999999999</v>
+        <v>4.381634666666667</v>
       </c>
       <c r="N4">
-        <v>9.144320999999998</v>
+        <v>13.144904</v>
       </c>
       <c r="O4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="P4">
-        <v>0.8441222069549942</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="Q4">
-        <v>0.2596408023669999</v>
+        <v>0.06278006150400001</v>
       </c>
       <c r="R4">
-        <v>2.336767221302999</v>
+        <v>0.565020553536</v>
       </c>
       <c r="S4">
-        <v>0.06198683050120335</v>
+        <v>0.9084416790695721</v>
       </c>
       <c r="T4">
-        <v>0.06198683050120335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>1.074794</v>
-      </c>
-      <c r="H5">
-        <v>3.224382</v>
-      </c>
-      <c r="I5">
-        <v>0.9265665208301903</v>
-      </c>
-      <c r="J5">
-        <v>0.9265665208301903</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.2167736666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.6503209999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.06003183809373915</v>
-      </c>
-      <c r="P5">
-        <v>0.06003183809373915</v>
-      </c>
-      <c r="Q5">
-        <v>0.2329870362913333</v>
-      </c>
-      <c r="R5">
-        <v>2.096883326622</v>
-      </c>
-      <c r="S5">
-        <v>0.05562349136155716</v>
-      </c>
-      <c r="T5">
-        <v>0.05562349136155716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>1.074794</v>
-      </c>
-      <c r="H6">
-        <v>3.224382</v>
-      </c>
-      <c r="I6">
-        <v>0.9265665208301903</v>
-      </c>
-      <c r="J6">
-        <v>0.9265665208301903</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.3460976666666666</v>
-      </c>
-      <c r="N6">
-        <v>1.038293</v>
-      </c>
-      <c r="O6">
-        <v>0.09584595495126667</v>
-      </c>
-      <c r="P6">
-        <v>0.09584595495126669</v>
-      </c>
-      <c r="Q6">
-        <v>0.3719836955473333</v>
-      </c>
-      <c r="R6">
-        <v>3.347853259926</v>
-      </c>
-      <c r="S6">
-        <v>0.08880765301484231</v>
-      </c>
-      <c r="T6">
-        <v>0.08880765301484232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>1.074794</v>
-      </c>
-      <c r="H7">
-        <v>3.224382</v>
-      </c>
-      <c r="I7">
-        <v>0.9265665208301903</v>
-      </c>
-      <c r="J7">
-        <v>0.9265665208301903</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.048106999999999</v>
-      </c>
-      <c r="N7">
-        <v>9.144320999999998</v>
-      </c>
-      <c r="O7">
-        <v>0.8441222069549942</v>
-      </c>
-      <c r="P7">
-        <v>0.8441222069549942</v>
-      </c>
-      <c r="Q7">
-        <v>3.276087114958</v>
-      </c>
-      <c r="R7">
-        <v>29.48478403462199</v>
-      </c>
-      <c r="S7">
-        <v>0.7821353764537908</v>
-      </c>
-      <c r="T7">
-        <v>0.7821353764537908</v>
+        <v>0.9084416790695721</v>
       </c>
     </row>
   </sheetData>
